--- a/Tableau_final_benevoles_complet.xlsx
+++ b/Tableau_final_benevoles_complet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,17 +604,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Vic Chou</t>
+          <t>ABDELKRIM BELALEM</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Vic Chou</t>
+          <t>ABDELKRIM BELALEM</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Vic Chou</t>
+          <t>ABDELKRIM BELALEM</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -675,58 +675,54 @@
           <t>4</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Elsa Deruette</t>
+          <t>Tamara Feodoroff</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Cyril Loof</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soraya Razi </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>victoire collet nott</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Laetitia  Piette</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Manon Hornoy</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Gaspard Levy hadida</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ANAËL  LÉTÉ</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Laetitia  Piette</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathilde  Berthou </t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Jade Lilin</t>
+          <t>Adèle  Berthou</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mathilde  Berthou </t>
+          <t>Muthu Mereddy</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>victoire collet nott</t>
+          <t>Léo Ouzet</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -740,47 +736,47 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
+          <t>François  Chea</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gaspard Levy hadida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ANAËL  LÉTÉ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Camille Aubry</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Marianne Barthelemy</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Quentin Tiberghien</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Jean p Dellon</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Marie Chanal</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Nico Brico</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Alison Vercknocke</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Marianne Barthelemy</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>victoire collet nott</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Auxence Magerand</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Luis MALDONADO</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Auxence Magerand</t>
+          <t>jean christophe bessagnet</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -794,7 +790,11 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathilde  Berthou </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -803,22 +803,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Damien Baleux</t>
+          <t>Jade Lilin</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anaïs  Démoulin Didier </t>
+          <t>Auxence Magerand</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Nico Brico</t>
+          <t>Benjamin DOGON</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Marie Chanal</t>
+          <t>Luis MALDONADO</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -836,34 +836,30 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Xavier Poittevin</t>
+          <t>Claire  Roux</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>Luis MALDONADO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaïs  Démoulin Didier </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>jean christophe bessagnet</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Luis MALDONADO</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>jean christophe bessagnet</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>ABDELKRIM BELALEM</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>ABDELKRIM BELALEM</t>
-        </is>
-      </c>
+          <t>Jean p Dellon</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,22 +870,22 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -924,42 +920,42 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Elsa Deruette</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Cherley Poiré</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Camille Aubry</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ANAËL  LÉTÉ</t>
+          <t>Alison Vercknocke</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>victoire collet nott Baleux</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Muthu Mereddy</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>victoire collet nott Baleux</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Marianne Barthelemy</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Manon Hornoy</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Gaspard Levy hadida</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Jean p Dellon</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>victoire collet nott</t>
+          <t>Léo Ouzet</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -972,49 +968,33 @@
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Iris Bertin</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Elsa Deruette</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Alison Vercknocke</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Damien Baleux</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>Benjamin DOGON</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathilde  Berthou </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Jade Lilin</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Manon Hornoy</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathilde  Berthou </t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Marianne Barthelemy</t>
+          <t>Quentin Tiberghien</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Jean p Dellon</t>
+          <t>Auxence Magerand</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1107,34 +1087,30 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1145,34 +1121,18 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Laura Simonet</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Laura Lebargy</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Laura Lebargy</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Nico Brico</t>
-        </is>
-      </c>
+          <t>léa boury</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jean p Dellon</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathilde  Berthou </t>
-        </is>
-      </c>
+          <t>léa boury</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1181,36 +1141,12 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Laetitia  Piette</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Laura Simonet</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Marie Chanal</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>amine jesus</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Marie Chanal</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Nico Brico</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1260,7 +1196,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alison Vercknocke</t>
+          <t>victoire collet nott</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1275,12 +1211,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Candice  Cazin</t>
+          <t>Jean p Dellon</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Candice  Cazin</t>
+          <t>Nico Brico</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1496,41 +1432,49 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sarah  Lebargy</t>
+          <t>Marie Chanal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sarah  Lebargy</t>
+          <t>Jean p Dellon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sarah  Lebargy</t>
+          <t>Perrine Leguai</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sarah  Lebargy</t>
+          <t>Perrine Leguai</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sarah  Lebargy</t>
+          <t>Perrine Leguai</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Laura Simonet</t>
+          <t xml:space="preserve">Celia Salome </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Marianne Barthelemy</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t xml:space="preserve">Sarah  Nabigha </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>victoire collet nott</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Muthu Mereddy</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1538,12 +1482,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Marie Chanal</t>
+          <t>Iris Bertin</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>amine jesus</t>
+          <t>Laura Simonet</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1553,22 +1497,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Claire  Roux</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>François  Chea</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>victoire collet nott</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>victoire collet nott</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Marianne Barthelemy</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathilde  Berthou </t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1630,36 +1586,44 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ABDELKRIM BELALEM</t>
+          <t>Sarah  Lebargy</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ABDELKRIM BELALEM</t>
+          <t>Sarah  Lebargy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ABDELKRIM BELALEM</t>
+          <t>Sarah  Lebargy</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Manon Hornoy</t>
+          <t>Sarah  Lebargy</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Miran le bg Loof</t>
+          <t>Sarah  Lebargy</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t xml:space="preserve">Claire BOCÉNO </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>Nico Brico</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathilde  Berthou </t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
     </row>
@@ -1789,20 +1753,24 @@
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pablo Leroy</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Alison Vercknocke</t>
+          <t>amine jesus</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cherley Poiré</t>
+          <t>amine jesus</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cherley Poiré</t>
+          <t>Vic Chou</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1812,13 +1780,29 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mathilde  Berthou </t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+          <t>Pablo Leroy</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Pablo Leroy</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Pablo Leroy</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Pablo Leroy</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Pablo Leroy</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1903,10 +1887,26 @@
           <t xml:space="preserve">Celia Salome </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Marie Chanal</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Marie Chanal</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Marie Chanal</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Marie Chanal</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1937,10 +1937,26 @@
           <t xml:space="preserve">Claire BOCÉNO </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Candice  Cazin</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Candice  Cazin</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Candice  Cazin</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Candice  Cazin</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2013,14 +2029,18 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pablo Leroy</t>
+          <t>Matteo Descamps</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cyril Loof</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2031,14 +2051,18 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Matteo Descamps</t>
+          <t>Gaspard Levy hadida</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Alison Vercknocke</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2056,7 +2080,11 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Manon Hornoy</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2102,15 +2130,19 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Miran le bg Loof</t>
+          <t xml:space="preserve">Soraya Razi </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Alison Vercknocke</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Elsa Deruette</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cherley Poiré</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Karine Schraub</t>
@@ -2160,10 +2192,26 @@
     <row r="47">
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cherley Poiré</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soraya Razi </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>François  Chea</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Alison Vercknocke</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2208,10 +2256,26 @@
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Perrine Leguai</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Perrine Leguai</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ABDELKRIM BELALEM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soraya Razi </t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -2326,17 +2390,17 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -2345,19 +2409,39 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cherley Poiré</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>Miran le bg Loof</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Manon Hornoy</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Jeanne Clément</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Jeanne Clément</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Candice  Cazin</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+          <t>Marianne Barthelemy</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathilde  Berthou </t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>François  Chea</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2366,12 +2450,36 @@
     <row r="54">
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nico Brico</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klara Marques de Campos </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klara Marques de Campos </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>François  Chea</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Miran le bg Loof</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Marianne Barthelemy</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2380,12 +2488,36 @@
     <row r="55">
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Alison Vercknocke</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Carla Bulard</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Carla Bulard</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Muthu Mereddy</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Nico Brico</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Muthu Mereddy</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2394,139 +2526,163 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Coordo et technique</t>
+          <t>canards costauds</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Coordo prog' et Timing</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cha</t>
+          <t>Charlotte Cardon</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cha</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Cha</t>
-        </is>
-      </c>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Technique scène</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve">Elsa Departout </t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Coordo et technique</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
@@ -2540,34 +2696,196 @@
       <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Coordo prog' et Timing</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Charlotte Cardon</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Technique scène</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Vic Chou</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Vic Chou</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Tim Grenier</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Tim Grenier</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Tim Grenier</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Tim Grenier</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Tim Grenier</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>Xavier Poittevin</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Xavier Poittevin</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Xavier Poittevin</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Xavier Poittevin</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Vic Chou</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Vic Chou</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
